--- a/notes_sheets/DSIs.xlsx
+++ b/notes_sheets/DSIs.xlsx
@@ -16,7 +16,9 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Degrees!$A$1:$C$128</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Institutes!$A$1:$F$42</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Institutes!$A$1:$F$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Institutes!$A$1:$F$42</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Degrees!$A$1:$C$128</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Degrees!$A$1:$C$128</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -962,12 +964,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY\ H:MM:SS"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1064,7 +1065,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1074,10 +1075,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,10 +1094,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1113,15 +1106,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,7 +1139,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1181,6 +1170,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1197,40 +1187,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5663265306123"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.8316326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1428571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="21.8571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8571428571429"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="115.704081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1244,744 +1234,746 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>39448</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="9" t="n">
         <v>40634</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="9" t="n">
         <v>41365</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="9" t="n">
         <v>41365</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="9" t="n">
         <v>41473</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="9" t="n">
         <v>41565</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="9" t="n">
         <v>41579</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="9" t="n">
         <v>41626</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="9" t="n">
         <v>41640</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="9" t="n">
         <v>41640</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="9" t="n">
         <v>41640</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="9" t="n">
         <v>41640</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D20" s="9" t="n">
         <v>41640</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="9" t="n">
         <v>41670</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="9" t="n">
         <v>41699</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="9" t="n">
         <v>41730</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="9" t="n">
         <v>41730</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="11" t="n">
+      <c r="D25" s="9" t="n">
         <v>41732</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="9" t="n">
         <v>41820</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="9" t="n">
         <v>41886</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D28" s="9" t="n">
         <v>41897</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="9" t="n">
         <v>41963</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D30" s="9" t="n">
         <v>41974</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="11" t="n">
+      <c r="D31" s="9" t="n">
         <v>42005</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D32" s="9" t="n">
         <v>42005</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="11" t="n">
+      <c r="D33" s="9" t="n">
         <v>42005</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="9" t="n">
         <v>42005</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="11" t="n">
+      <c r="D35" s="9" t="n">
         <v>42005</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D36" s="9" t="n">
         <v>42036</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="9" t="n">
         <v>42036</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D38" s="9" t="n">
         <v>42111</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="11" t="n">
+      <c r="D39" s="9" t="n">
         <v>42164</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D40" s="9" t="n">
         <v>42186</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="11" t="n">
+      <c r="D41" s="9" t="n">
         <v>42248</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D42" s="9" t="n">
         <v>42268</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:F42"/>
   <hyperlinks>
@@ -2058,32 +2050,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2091,35 +2083,35 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2146,10 +2138,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2190,46 +2182,46 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2245,35 +2237,35 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2289,13 +2281,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2311,13 +2303,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2333,29 +2325,29 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2366,57 +2358,57 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2443,13 +2435,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2465,153 +2457,153 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2619,32 +2611,32 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2652,43 +2644,43 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2696,54 +2688,54 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2751,13 +2743,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2773,10 +2765,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2806,32 +2798,32 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2839,10 +2831,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2850,10 +2842,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2861,10 +2853,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2872,13 +2864,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2894,10 +2886,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>209</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2905,7 +2897,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2916,32 +2908,32 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2949,32 +2941,32 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="B83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2982,10 +2974,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2993,10 +2985,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3004,21 +2996,21 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3026,10 +3018,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3037,32 +3029,32 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3073,7 +3065,7 @@
       <c r="A93" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3081,32 +3073,32 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="10" t="s">
+      <c r="B95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3125,43 +3117,43 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3169,32 +3161,32 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3213,131 +3205,131 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="10" t="s">
+      <c r="B106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="10" t="s">
+      <c r="B107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="10" t="s">
+      <c r="B110" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="10" t="s">
+      <c r="B114" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="10" t="s">
+      <c r="B116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3345,10 +3337,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -3356,10 +3348,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3367,90 +3359,90 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="10" t="s">
+      <c r="B120" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="10" t="s">
+      <c r="B123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="B125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="B126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>310</v>
       </c>
     </row>
